--- a/create_root_files/20180808root.xlsx
+++ b/create_root_files/20180808root.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FE9BA0-6FB9-4AC1-9F5A-E07B9565AD18}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21E8ACF-E33A-42D6-ACC7-3EE0BDACCED5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -340,8 +340,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="190" formatCode="0.00000000000"/>
-    <numFmt numFmtId="196" formatCode="0.0000000%"/>
+    <numFmt numFmtId="176" formatCode="0.00000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -591,9 +591,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="196" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="196" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -629,23 +629,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>484838</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>475313</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>113731</xdr:rowOff>
+      <xdr:rowOff>56581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E727189D-9EA6-4384-ADEF-6CA155A71828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90261A2-0A79-4CFE-8826-F7EB946F03A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -667,7 +667,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="342900"/>
+          <a:off x="7172325" y="523875"/>
           <a:ext cx="7495238" cy="4552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/create_root_files/20180808root.xlsx
+++ b/create_root_files/20180808root.xlsx
@@ -3,24 +3,56 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA16B4D-C6AE-4312-B595-413D7D715C60}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB9B125-61B5-43CB-8606-9123A67EA09E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="2点間の距離" sheetId="1" r:id="rId2"/>
+    <sheet name="20180826e" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2点間の距離" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{461E1555-AEBA-45F0-BAC4-8EAEADA4B386}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ルートの間隔が10mを超えないために調節
+短いほうが100％</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
@@ -83,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>地点A</t>
     <rPh sb="0" eb="2">
@@ -332,6 +364,69 @@
     <rPh sb="2" eb="3">
       <t>カン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABの角度</t>
+    <rPh sb="3" eb="5">
+      <t>カクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CDの角度</t>
+    <rPh sb="3" eb="5">
+      <t>カクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離の比率</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10mの変動値</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10m移動</t>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m移動</t>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30m移動</t>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -339,11 +434,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00000000000"/>
     <numFmt numFmtId="177" formatCode="0.0000000%"/>
+    <numFmt numFmtId="181" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,16 +484,54 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -569,6 +703,21 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -581,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -606,6 +755,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -629,16 +788,71 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>256238</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76DA4C1-01DA-44AB-BE3A-FB7AFD8574B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="123825"/>
+          <a:ext cx="7495238" cy="4552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>37163</xdr:colOff>
+      <xdr:colOff>8588</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>132781</xdr:rowOff>
+      <xdr:rowOff>161356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -667,7 +881,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7419975" y="600075"/>
+          <a:off x="7391400" y="628650"/>
           <a:ext cx="7495238" cy="4552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -942,11 +1156,469 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341716B9-F2D4-4283-BF37-CD9F765861D1}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="6" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23">
+        <v>35.369565999999999</v>
+      </c>
+      <c r="C2" s="20">
+        <v>35.370953</v>
+      </c>
+      <c r="D2" s="23">
+        <v>35.369529</v>
+      </c>
+      <c r="E2" s="20">
+        <v>35.371195999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23">
+        <v>139.41674599999999</v>
+      </c>
+      <c r="C3" s="20">
+        <v>139.41690700000001</v>
+      </c>
+      <c r="D3" s="23">
+        <v>139.41531000000001</v>
+      </c>
+      <c r="E3" s="20">
+        <v>139.41571200000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <f>SQRT((C2-B2)*(C2-B2)+(C3-B3)*(C3-B3))*100000</f>
+        <v>139.63130021630334</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <f>SQRT((E2-D2)*(E2-D2)+(E3-D3)*(E3-D3))*100000</f>
+        <v>171.47865756410494</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="24">
+        <f>D5/B5</f>
+        <v>1.2280817932545693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f>ATAN2(C3-B3,C2-B2)</f>
+        <v>1.4552356333601413</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <f>ATAN2(E3-D3,E2-D2)</f>
+        <v>1.3341625901765204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="21"/>
+      <c r="B9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="27">
+        <f>SIN(B7)/10000</f>
+        <v>9.9333029045244921E-5</v>
+      </c>
+      <c r="C11" s="27">
+        <f>COS(B7)/10000</f>
+        <v>1.1530366026129815E-5</v>
+      </c>
+      <c r="D11" s="27">
+        <f>(SIN(D7)/10000)*F5</f>
+        <v>1.1938583952274933E-4</v>
+      </c>
+      <c r="E11" s="27">
+        <f>(COS(D7)/10000)*F5</f>
+        <v>2.8790106472222881E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="26">
+        <f>B2+$B$11</f>
+        <v>35.369665333029047</v>
+      </c>
+      <c r="C12" s="20">
+        <f>B3+C11</f>
+        <v>139.41675753036603</v>
+      </c>
+      <c r="D12" s="26">
+        <f>D2+$D$11</f>
+        <v>35.369648385839525</v>
+      </c>
+      <c r="E12" s="20">
+        <f>D3+$E$11</f>
+        <v>139.41533879010649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="26">
+        <f>B12+$B$11</f>
+        <v>35.369764666058096</v>
+      </c>
+      <c r="C13" s="20">
+        <f>C12+$C$11</f>
+        <v>139.41676906073207</v>
+      </c>
+      <c r="D13" s="26">
+        <f>D12+$D$11</f>
+        <v>35.369767771679051</v>
+      </c>
+      <c r="E13" s="20">
+        <f>E12+$E$11</f>
+        <v>139.41536758021297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="26">
+        <f>B13+$B$11</f>
+        <v>35.369863999087144</v>
+      </c>
+      <c r="C14" s="20">
+        <f t="shared" ref="C14:C25" si="0">C13+$C$11</f>
+        <v>139.4167805910981</v>
+      </c>
+      <c r="D14" s="26">
+        <f>D13+$D$11</f>
+        <v>35.369887157518576</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" ref="E14:E25" si="1">E13+$E$11</f>
+        <v>139.41539637031946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="21">
+        <v>40</v>
+      </c>
+      <c r="B15" s="26">
+        <f>B14+$B$11</f>
+        <v>35.369963332116193</v>
+      </c>
+      <c r="C15" s="20">
+        <f t="shared" si="0"/>
+        <v>139.41679212146414</v>
+      </c>
+      <c r="D15" s="26">
+        <f>D14+$D$11</f>
+        <v>35.370006543358102</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="1"/>
+        <v>139.41542516042594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="21">
+        <v>50</v>
+      </c>
+      <c r="B16" s="26">
+        <f>B15+$B$11</f>
+        <v>35.370062665145241</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" si="0"/>
+        <v>139.41680365183018</v>
+      </c>
+      <c r="D16" s="26">
+        <f>D15+$D$11</f>
+        <v>35.370125929197627</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="1"/>
+        <v>139.41545395053242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="21">
+        <v>60</v>
+      </c>
+      <c r="B17" s="26">
+        <f>B16+$B$11</f>
+        <v>35.370161998174289</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" si="0"/>
+        <v>139.41681518219622</v>
+      </c>
+      <c r="D17" s="26">
+        <f>D16+$D$11</f>
+        <v>35.370245315037153</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="1"/>
+        <v>139.41548274063891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="21">
+        <v>70</v>
+      </c>
+      <c r="B18" s="26">
+        <f>B17+$B$11</f>
+        <v>35.370261331203338</v>
+      </c>
+      <c r="C18" s="20">
+        <f t="shared" si="0"/>
+        <v>139.41682671256225</v>
+      </c>
+      <c r="D18" s="26">
+        <f>D17+$D$11</f>
+        <v>35.370364700876678</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="1"/>
+        <v>139.41551153074539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="21">
+        <v>80</v>
+      </c>
+      <c r="B19" s="26">
+        <f>B18+$B$11</f>
+        <v>35.370360664232386</v>
+      </c>
+      <c r="C19" s="20">
+        <f t="shared" si="0"/>
+        <v>139.41683824292829</v>
+      </c>
+      <c r="D19" s="26">
+        <f>D18+$D$11</f>
+        <v>35.370484086716203</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="1"/>
+        <v>139.41554032085187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="21">
+        <v>90</v>
+      </c>
+      <c r="B20" s="26">
+        <f>B19+$B$11</f>
+        <v>35.370459997261435</v>
+      </c>
+      <c r="C20" s="20">
+        <f t="shared" si="0"/>
+        <v>139.41684977329433</v>
+      </c>
+      <c r="D20" s="26">
+        <f>D19+$D$11</f>
+        <v>35.370603472555729</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="1"/>
+        <v>139.41556911095836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="21">
+        <v>100</v>
+      </c>
+      <c r="B21" s="26">
+        <f>B20+$B$11</f>
+        <v>35.370559330290483</v>
+      </c>
+      <c r="C21" s="20">
+        <f t="shared" si="0"/>
+        <v>139.41686130366037</v>
+      </c>
+      <c r="D21" s="26">
+        <f>D20+$D$11</f>
+        <v>35.370722858395254</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="1"/>
+        <v>139.41559790106484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="21">
+        <v>110</v>
+      </c>
+      <c r="B22" s="26">
+        <f>B21+$B$11</f>
+        <v>35.370658663319531</v>
+      </c>
+      <c r="C22" s="20">
+        <f t="shared" si="0"/>
+        <v>139.41687283402641</v>
+      </c>
+      <c r="D22" s="26">
+        <f>D21+$D$11</f>
+        <v>35.37084224423478</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="1"/>
+        <v>139.41562669117133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="21">
+        <v>120</v>
+      </c>
+      <c r="B23" s="26">
+        <f>B22+$B$11</f>
+        <v>35.37075799634858</v>
+      </c>
+      <c r="C23" s="20">
+        <f t="shared" si="0"/>
+        <v>139.41688436439244</v>
+      </c>
+      <c r="D23" s="26">
+        <f>D22+$D$11</f>
+        <v>35.370961630074305</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="1"/>
+        <v>139.41565548127781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="21">
+        <v>130</v>
+      </c>
+      <c r="B24" s="26">
+        <f>B23+$B$11</f>
+        <v>35.370857329377628</v>
+      </c>
+      <c r="C24" s="20">
+        <f t="shared" si="0"/>
+        <v>139.41689589475848</v>
+      </c>
+      <c r="D24" s="26">
+        <f>D23+$D$11</f>
+        <v>35.37108101591383</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="1"/>
+        <v>139.41568427138429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="21">
+        <v>140</v>
+      </c>
+      <c r="B25" s="26">
+        <f>B24+$B$11</f>
+        <v>35.370956662406677</v>
+      </c>
+      <c r="C25" s="20">
+        <f t="shared" si="0"/>
+        <v>139.41690742512452</v>
+      </c>
+      <c r="D25" s="26">
+        <f>D24+$D$11</f>
+        <v>35.371200401753356</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="1"/>
+        <v>139.41571306149078</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7CC094-6087-4FD7-AB10-7E86077C088D}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1416,7 +2088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C26"/>
   <sheetViews>
